--- a/ОПД/трассировка2.xlsx
+++ b/ОПД/трассировка2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs_for_labs\docs_for_labs\ОПД\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git\docs_for_labs\ОПД\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="93">
   <si>
     <t>Команда</t>
   </si>
@@ -233,27 +233,6 @@
     <t>CLA</t>
   </si>
   <si>
-    <t>ST EFD</t>
-  </si>
-  <si>
-    <t>ST EFA</t>
-  </si>
-  <si>
-    <t>ST EF7</t>
-  </si>
-  <si>
-    <t>LD FO5</t>
-  </si>
-  <si>
-    <t>ADD EF7</t>
-  </si>
-  <si>
-    <t>LD BF6</t>
-  </si>
-  <si>
-    <t>BPL 02</t>
-  </si>
-  <si>
     <t>CLC</t>
   </si>
   <si>
@@ -263,19 +242,67 @@
     <t>NOT</t>
   </si>
   <si>
-    <t>AND EF2</t>
-  </si>
-  <si>
     <t>ROL</t>
   </si>
   <si>
-    <t>ST EF0</t>
-  </si>
-  <si>
     <t>LOOP 2F1</t>
   </si>
   <si>
-    <t>JUMP EF5</t>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>ST IP-3</t>
+  </si>
+  <si>
+    <t>LD #3</t>
+  </si>
+  <si>
+    <t>0003</t>
+  </si>
+  <si>
+    <t>ST IP-6</t>
+  </si>
+  <si>
+    <t>ADD IP-9</t>
+  </si>
+  <si>
+    <t>0308</t>
+  </si>
+  <si>
+    <t>ST IP-9</t>
+  </si>
+  <si>
+    <t>FFFD</t>
+  </si>
+  <si>
+    <t>FFFA</t>
+  </si>
+  <si>
+    <t>02F5</t>
+  </si>
+  <si>
+    <t>02F3</t>
+  </si>
+  <si>
+    <t>FFF7</t>
+  </si>
+  <si>
+    <t>LD - (IP-10)</t>
+  </si>
+  <si>
+    <t>FFF6</t>
+  </si>
+  <si>
+    <t>BPL 2</t>
+  </si>
+  <si>
+    <t>ST IP-16</t>
+  </si>
+  <si>
+    <t>JUMP IP-11</t>
+  </si>
+  <si>
+    <t>AND IP-14</t>
   </si>
 </sst>
 </file>
@@ -435,6 +462,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -445,12 +478,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -736,43 +763,43 @@
   <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="12" width="5.6328125" customWidth="1"/>
-    <col min="16" max="16" width="30.54296875" style="16" customWidth="1"/>
+    <col min="1" max="12" width="5.5703125" customWidth="1"/>
+    <col min="16" max="16" width="30.5703125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="11" t="s">
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="13"/>
-      <c r="N1" s="11" t="s">
+      <c r="L1" s="15"/>
+      <c r="N1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="12"/>
-      <c r="P1" s="15" t="s">
+      <c r="O1" s="14"/>
+      <c r="P1" s="11" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -816,23 +843,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="G3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="9"/>
+      <c r="H3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="K3" s="10"/>
       <c r="L3" s="6"/>
       <c r="N3" s="6" t="s">
@@ -842,25 +883,43 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+        <v>47</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="G4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="6"/>
+      <c r="H4" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="N4" s="6" t="s">
         <v>18</v>
       </c>
@@ -868,23 +927,37 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="G5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="9"/>
+      <c r="H5" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>74</v>
+      </c>
       <c r="K5" s="10"/>
       <c r="L5" s="6"/>
       <c r="N5" s="6" t="s">
@@ -894,25 +967,43 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="G6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="6"/>
+      <c r="H6" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="N6" s="6" t="s">
         <v>20</v>
       </c>
@@ -920,23 +1011,37 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+        <v>49</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="G7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="9"/>
+      <c r="H7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>74</v>
+      </c>
       <c r="K7" s="10"/>
       <c r="L7" s="6"/>
       <c r="N7" s="6" t="s">
@@ -945,54 +1050,82 @@
       <c r="O7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="16" t="s">
+      <c r="P7" s="12" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+        <v>50</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="G8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="6"/>
+      <c r="H8" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="N8" s="6" t="s">
         <v>22</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P8" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+        <v>51</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="G9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="6"/>
+      <c r="H9" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="I9" s="6"/>
       <c r="J9" s="9"/>
       <c r="K9" s="10"/>
@@ -1003,17 +1136,13 @@
       <c r="O9" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="P9" s="16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>46</v>
-      </c>
+      <c r="P9" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
       <c r="C10" s="8"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -1032,17 +1161,13 @@
       <c r="O10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="P10" s="16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>49</v>
-      </c>
+      <c r="P10" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="8"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -1061,17 +1186,13 @@
       <c r="O11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="P11" s="16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>50</v>
-      </c>
+      <c r="P11" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
       <c r="C12" s="8"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -1090,17 +1211,13 @@
       <c r="O12" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="P12" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>51</v>
-      </c>
+      <c r="P12" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
       <c r="C13" s="8"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -1119,17 +1236,13 @@
       <c r="O13" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="P13" s="16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>52</v>
-      </c>
+      <c r="P13" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
       <c r="C14" s="8"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -1148,17 +1261,13 @@
       <c r="O14" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="P14" s="16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>53</v>
-      </c>
+      <c r="P14" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="8"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -1177,17 +1286,13 @@
       <c r="O15" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="P15" s="16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>54</v>
-      </c>
+      <c r="P15" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
       <c r="C16" s="8"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -1206,17 +1311,13 @@
       <c r="O16" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="P16" s="16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="P16" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
       <c r="C17" s="8"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -1235,17 +1336,13 @@
       <c r="O17" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="P17" s="16" t="s">
+      <c r="P17" s="12" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>55</v>
-      </c>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
       <c r="C18" s="8"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -1264,17 +1361,13 @@
       <c r="O18" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="P18" s="16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>56</v>
-      </c>
+      <c r="P18" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
       <c r="C19" s="8"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -1293,17 +1386,13 @@
       <c r="O19" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P19" s="16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>57</v>
-      </c>
+      <c r="P19" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
       <c r="C20" s="8"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -1322,17 +1411,13 @@
       <c r="O20" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P20" s="16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="P20" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
       <c r="C21" s="8"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -1351,17 +1436,13 @@
       <c r="O21" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P21" s="16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A22" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>59</v>
-      </c>
+      <c r="P21" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
       <c r="C22" s="8"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -1380,17 +1461,13 @@
       <c r="O22" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="P22" s="16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="P22" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
       <c r="C23" s="8"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -1409,17 +1486,13 @@
       <c r="O23" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="P23" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A24" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="P23" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
       <c r="C24" s="8"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -1438,17 +1511,13 @@
       <c r="O24" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="P24" s="16" t="s">
+      <c r="P24" s="12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A25" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>61</v>
-      </c>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
       <c r="C25" s="8"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -1468,13 +1537,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A26" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>62</v>
-      </c>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
       <c r="C26" s="8"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
@@ -1494,13 +1559,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A27" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>63</v>
-      </c>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
       <c r="C27" s="8"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
@@ -1520,13 +1581,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A28" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>64</v>
-      </c>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
       <c r="C28" s="8"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -1546,13 +1603,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A29" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>65</v>
-      </c>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7"/>
       <c r="C29" s="8"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -1572,7 +1625,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
       <c r="C30" s="8"/>

--- a/ОПД/трассировка2.xlsx
+++ b/ОПД/трассировка2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="94">
   <si>
     <t>Команда</t>
   </si>
@@ -303,6 +303,9 @@
   </si>
   <si>
     <t>AND IP-14</t>
+  </si>
+  <si>
+    <t>0307</t>
   </si>
 </sst>
 </file>
@@ -763,7 +766,7 @@
   <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1118,7 +1121,7 @@
         <v>18</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>14</v>
@@ -1126,10 +1129,18 @@
       <c r="H9" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="6"/>
+      <c r="I9" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="N9" s="6" t="s">
         <v>23</v>
       </c>

--- a/ОПД/трассировка2.xlsx
+++ b/ОПД/трассировка2.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git\docs_for_labs\ОПД\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs_for_labs\docs_for_labs\ОПД\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Диаграмма1" sheetId="2" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="112">
   <si>
     <t>Команда</t>
   </si>
@@ -254,9 +255,6 @@
     <t>ST IP-3</t>
   </si>
   <si>
-    <t>LD #3</t>
-  </si>
-  <si>
     <t>0003</t>
   </si>
   <si>
@@ -278,9 +276,6 @@
     <t>FFFA</t>
   </si>
   <si>
-    <t>02F5</t>
-  </si>
-  <si>
     <t>02F3</t>
   </si>
   <si>
@@ -305,7 +300,67 @@
     <t>AND IP-14</t>
   </si>
   <si>
-    <t>0307</t>
+    <t>0002</t>
+  </si>
+  <si>
+    <t>FFFF</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>FFF2</t>
+  </si>
+  <si>
+    <t>0005</t>
+  </si>
+  <si>
+    <t>030A</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>len</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>a[0]</t>
+  </si>
+  <si>
+    <t>a[1]</t>
+  </si>
+  <si>
+    <t>a[4]</t>
+  </si>
+  <si>
+    <t>a[2]</t>
+  </si>
+  <si>
+    <t>a[3]</t>
+  </si>
+  <si>
+    <t>0309</t>
+  </si>
+  <si>
+    <t>LD #5</t>
+  </si>
+  <si>
+    <t>FFF0</t>
+  </si>
+  <si>
+    <t>0004</t>
+  </si>
+  <si>
+    <t>02F9</t>
+  </si>
+  <si>
+    <t>FFF5</t>
   </si>
 </sst>
 </file>
@@ -498,6 +553,2514 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$H$1:$H$16</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Регистры</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BR</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>02F3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FFFD</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FFFA</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>FFF7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>FFF7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>FFF6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2FD</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2FE</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>FFF2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>FFF0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0003</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Лист1!$A$17:$G$29</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="13"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>000</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>000</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>000</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>000</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>000</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>000</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>000</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>000</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>000</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>000</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>000</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>000</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>02F9</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0484</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>F302</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0200</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0280</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0000</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0400</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0000</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0004</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>02F9</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>303</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>308</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2FA</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2FD</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2FE</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2F2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>300</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2F2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2F1</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>303</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>CEF5</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>ABF6</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>F302</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0200</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0280</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2EF2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0400</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>EEF0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>82F1</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>CEF5</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2F9</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2FA</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2FD</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2FE</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2FF</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>300</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>301</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>302</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>303</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2F9</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>CEF5</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>ABF6</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>F302</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0200</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0280</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2EF2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0400</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>EEF0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>82F1</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>CEF5</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>303</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2F9</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2FA</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2FD</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2FE</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2FF</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>300</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>301</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>302</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>303</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$H$17:$H$29</c:f>
+              <c:numCache>
+                <c:formatCode>@</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0A7D-4227-B77D-222E7DC313CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$I$1:$I$16</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Регистры</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>030A</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>030A</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>044F</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>044F</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>FFFF</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Лист1!$A$17:$G$29</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="13"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>000</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>000</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>000</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>000</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>000</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>000</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>000</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>000</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>000</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>000</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>000</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>000</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>02F9</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0484</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>F302</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0200</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0280</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0000</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0400</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0000</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0004</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>02F9</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>303</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>308</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2FA</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2FD</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2FE</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2F2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>300</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2F2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2F1</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>303</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>CEF5</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>ABF6</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>F302</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0200</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0280</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2EF2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0400</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>EEF0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>82F1</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>CEF5</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2F9</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2FA</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2FD</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2FE</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2FF</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>300</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>301</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>302</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>303</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2F9</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>CEF5</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>ABF6</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>F302</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0200</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0280</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2EF2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0400</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>EEF0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>82F1</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>CEF5</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>303</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2F9</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2FA</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2FD</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2FE</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2FF</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>300</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>301</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>302</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>303</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$I$17:$I$29</c:f>
+              <c:numCache>
+                <c:formatCode>@</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0A7D-4227-B77D-222E7DC313CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$J$1:$J$16</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Регистры</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NZVC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Лист1!$A$17:$G$29</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="13"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>000</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>000</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>000</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>000</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>000</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>000</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>000</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>000</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>000</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>000</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>000</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>000</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>02F9</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0484</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>F302</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0200</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0280</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0000</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0400</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0000</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0004</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>02F9</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>303</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>308</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2FA</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2FD</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2FE</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2F2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>300</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2F2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2F1</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>303</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>CEF5</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>ABF6</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>F302</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0200</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0280</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2EF2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0400</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>EEF0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>82F1</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>CEF5</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2F9</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2FA</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2FD</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2FE</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2FF</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>300</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>301</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>302</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>303</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2F9</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>CEF5</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>ABF6</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>F302</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0200</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0280</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2EF2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0400</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>EEF0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>82F1</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>CEF5</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>303</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2F9</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2FA</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2FD</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2FE</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2FF</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>300</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>301</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>302</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>303</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$J$17:$J$29</c:f>
+              <c:numCache>
+                <c:formatCode>@</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0A7D-4227-B77D-222E7DC313CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$K$1:$K$16</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Ячейка</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Адр</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2F2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2F1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2F0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2F0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2F2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Лист1!$A$17:$G$29</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="13"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>000</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>000</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>000</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>000</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>000</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>000</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>000</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>000</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>000</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>000</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>000</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>000</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>02F9</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0484</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>F302</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0200</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0280</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0000</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0400</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0000</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0004</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>02F9</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>303</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>308</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2FA</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2FD</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2FE</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2F2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>300</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2F2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2F1</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>303</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>CEF5</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>ABF6</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>F302</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0200</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0280</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2EF2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0400</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>EEF0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>82F1</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>CEF5</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2F9</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2FA</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2FD</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2FE</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2FF</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>300</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>301</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>302</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>303</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2F9</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>CEF5</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>ABF6</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>F302</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0200</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0280</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2EF2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0400</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>EEF0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>82F1</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>CEF5</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>303</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2F9</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2FA</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2FD</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2FE</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2FF</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>300</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>301</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>302</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>303</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$K$17:$K$29</c:f>
+              <c:numCache>
+                <c:formatCode>@</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0A7D-4227-B77D-222E7DC313CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$L$1:$L$16</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Ячейка</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Знчн</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>030A</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0309</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0004</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Лист1!$A$17:$G$29</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="13"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>000</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>000</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>000</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>000</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>000</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>000</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>000</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>000</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>000</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>000</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>000</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>000</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>02F9</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0484</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>F302</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0200</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0280</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0000</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0400</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0000</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0004</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>02F9</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>303</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>308</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2FA</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2FD</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2FE</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2F2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>300</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2F2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2F1</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>303</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>CEF5</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>ABF6</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>F302</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0200</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0280</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2EF2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0400</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>EEF0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>82F1</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>CEF5</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2F9</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2FA</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2FD</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2FE</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2FF</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>300</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>301</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>302</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>303</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2F9</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>CEF5</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>ABF6</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>F302</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0200</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0280</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2EF2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0400</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>EEF0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>82F1</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>CEF5</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>303</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2F9</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2FA</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2FD</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2FE</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2FF</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>300</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>301</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>302</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>303</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$L$17:$L$29</c:f>
+              <c:numCache>
+                <c:formatCode>@</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0A7D-4227-B77D-222E7DC313CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="195010296"/>
+        <c:axId val="195011280"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="195010296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="195011280"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="195011280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="@" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="195010296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="68" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9300882" cy="6079191"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -765,17 +3328,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="109" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="12" width="5.5703125" customWidth="1"/>
-    <col min="16" max="16" width="30.5703125" style="12" customWidth="1"/>
+    <col min="1" max="12" width="5.54296875" customWidth="1"/>
+    <col min="16" max="16" width="30.54296875" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -802,7 +3365,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -846,7 +3409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>21</v>
       </c>
@@ -869,7 +3432,7 @@
         <v>14</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>74</v>
@@ -885,8 +3448,11 @@
       <c r="O3" s="7" t="s">
         <v>17</v>
       </c>
+      <c r="P3" s="12" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>22</v>
       </c>
@@ -909,7 +3475,7 @@
         <v>14</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>74</v>
@@ -929,8 +3495,11 @@
       <c r="O4" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="P4" s="12" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>23</v>
       </c>
@@ -947,16 +3516,16 @@
         <v>23</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>74</v>
@@ -969,8 +3538,11 @@
       <c r="O5" s="7" t="s">
         <v>44</v>
       </c>
+      <c r="P5" s="12" t="s">
+        <v>99</v>
+      </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>24</v>
       </c>
@@ -987,16 +3559,16 @@
         <v>19</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>74</v>
@@ -1005,7 +3577,7 @@
         <v>19</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>20</v>
@@ -1013,8 +3585,11 @@
       <c r="O6" s="7" t="s">
         <v>45</v>
       </c>
+      <c r="P6" s="12" t="s">
+        <v>100</v>
+      </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>25</v>
       </c>
@@ -1037,10 +3612,10 @@
         <v>14</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>74</v>
@@ -1057,7 +3632,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>26</v>
       </c>
@@ -1074,16 +3649,16 @@
         <v>18</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>74</v>
@@ -1092,7 +3667,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="N8" s="6" t="s">
         <v>22</v>
@@ -1104,7 +3679,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>27</v>
       </c>
@@ -1118,19 +3693,19 @@
         <v>51</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="J9" s="9" t="s">
         <v>74</v>
@@ -1139,7 +3714,7 @@
         <v>18</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="N9" s="6" t="s">
         <v>23</v>
@@ -1148,22 +3723,40 @@
         <v>48</v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="G10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="9"/>
+      <c r="H10" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>74</v>
+      </c>
       <c r="K10" s="10"/>
       <c r="L10" s="6"/>
       <c r="N10" s="6" t="s">
@@ -1173,22 +3766,40 @@
         <v>46</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="G11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="9"/>
+      <c r="H11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="K11" s="10"/>
       <c r="L11" s="6"/>
       <c r="N11" s="6" t="s">
@@ -1198,22 +3809,40 @@
         <v>49</v>
       </c>
       <c r="P11" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="G12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="9"/>
+      <c r="H12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>93</v>
+      </c>
       <c r="K12" s="10"/>
       <c r="L12" s="6"/>
       <c r="N12" s="6" t="s">
@@ -1223,22 +3852,40 @@
         <v>50</v>
       </c>
       <c r="P12" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="G13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="9"/>
+      <c r="H13" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="K13" s="10"/>
       <c r="L13" s="6"/>
       <c r="N13" s="6" t="s">
@@ -1248,22 +3895,40 @@
         <v>51</v>
       </c>
       <c r="P13" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="G14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="9"/>
+      <c r="H14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="K14" s="10"/>
       <c r="L14" s="6"/>
       <c r="N14" s="6" t="s">
@@ -1273,24 +3938,46 @@
         <v>52</v>
       </c>
       <c r="P14" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="G15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="N15" s="6" t="s">
         <v>29</v>
       </c>
@@ -1301,21 +3988,43 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>109</v>
+      </c>
       <c r="G16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="6"/>
+      <c r="H16" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>109</v>
+      </c>
       <c r="N16" s="6" t="s">
         <v>30</v>
       </c>
@@ -1326,19 +4035,37 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>110</v>
+      </c>
       <c r="G17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="9"/>
+      <c r="H17" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="K17" s="10"/>
       <c r="L17" s="6"/>
       <c r="N17" s="6" t="s">
@@ -1351,21 +4078,43 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="G18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="6"/>
+      <c r="H18" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="N18" s="6" t="s">
         <v>32</v>
       </c>
@@ -1376,19 +4125,37 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="G19" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="9"/>
+      <c r="H19" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>74</v>
+      </c>
       <c r="K19" s="10"/>
       <c r="L19" s="6"/>
       <c r="N19" s="6" t="s">
@@ -1398,22 +4165,40 @@
         <v>56</v>
       </c>
       <c r="P19" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="G20" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="9"/>
+      <c r="H20" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="K20" s="10"/>
       <c r="L20" s="6"/>
       <c r="N20" s="6" t="s">
@@ -1426,19 +4211,37 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="G21" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="9"/>
+      <c r="H21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>93</v>
+      </c>
       <c r="K21" s="10"/>
       <c r="L21" s="6"/>
       <c r="N21" s="6" t="s">
@@ -1448,22 +4251,40 @@
         <v>58</v>
       </c>
       <c r="P21" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A22" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="G22" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="9"/>
+      <c r="H22" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="K22" s="10"/>
       <c r="L22" s="6"/>
       <c r="N22" s="6" t="s">
@@ -1476,19 +4297,37 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="G23" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="9"/>
+      <c r="H23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="K23" s="10"/>
       <c r="L23" s="6"/>
       <c r="N23" s="6" t="s">
@@ -1498,24 +4337,46 @@
         <v>60</v>
       </c>
       <c r="P23" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A24" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="G24" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="6"/>
+      <c r="H24" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="N24" s="6" t="s">
         <v>38</v>
       </c>
@@ -1526,41 +4387,84 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A25" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>109</v>
+      </c>
       <c r="G25" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="6"/>
+      <c r="H25" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>109</v>
+      </c>
       <c r="N25" s="6" t="s">
         <v>39</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>61</v>
       </c>
+      <c r="P25" s="12" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A26" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>110</v>
+      </c>
       <c r="G26" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="9"/>
+      <c r="H26" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="K26" s="10"/>
       <c r="L26" s="6"/>
       <c r="N26" s="6" t="s">
@@ -1569,8 +4473,11 @@
       <c r="O26" s="7" t="s">
         <v>62</v>
       </c>
+      <c r="P26" s="12" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="8"/>
@@ -1591,8 +4498,11 @@
       <c r="O27" s="7" t="s">
         <v>63</v>
       </c>
+      <c r="P27" s="12" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="8"/>
@@ -1613,8 +4523,11 @@
       <c r="O28" s="7" t="s">
         <v>64</v>
       </c>
+      <c r="P28" s="12" t="s">
+        <v>105</v>
+      </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
       <c r="C29" s="8"/>
@@ -1635,8 +4548,11 @@
       <c r="O29" s="7" t="s">
         <v>65</v>
       </c>
+      <c r="P29" s="12" t="s">
+        <v>103</v>
+      </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
       <c r="C30" s="8"/>

--- a/ОПД/трассировка2.xlsx
+++ b/ОПД/трассировка2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="139">
   <si>
     <t>Команда</t>
   </si>
@@ -245,9 +245,6 @@
     <t>ROL</t>
   </si>
   <si>
-    <t>LOOP 2F1</t>
-  </si>
-  <si>
     <t>0000</t>
   </si>
   <si>
@@ -269,24 +266,15 @@
     <t>FFF7</t>
   </si>
   <si>
-    <t>LD - (IP-10)</t>
-  </si>
-  <si>
     <t>FFF6</t>
   </si>
   <si>
     <t>BPL 2</t>
   </si>
   <si>
-    <t>ST IP-16</t>
-  </si>
-  <si>
     <t>JUMP IP-11</t>
   </si>
   <si>
-    <t>AND IP-14</t>
-  </si>
-  <si>
     <t>0002</t>
   </si>
   <si>
@@ -360,6 +348,99 @@
   </si>
   <si>
     <t>ST I</t>
+  </si>
+  <si>
+    <t>Комментарий</t>
+  </si>
+  <si>
+    <t>адрес начала массива</t>
+  </si>
+  <si>
+    <t>I - счётчик для перебора</t>
+  </si>
+  <si>
+    <t>LEN - длина массива</t>
+  </si>
+  <si>
+    <t>R - результат программы</t>
+  </si>
+  <si>
+    <t>0 -&gt; AC</t>
+  </si>
+  <si>
+    <t>AC -&gt; R</t>
+  </si>
+  <si>
+    <t>AC -&gt; LEN</t>
+  </si>
+  <si>
+    <t>START+AC -&gt; AC</t>
+  </si>
+  <si>
+    <t>AC -&gt; I</t>
+  </si>
+  <si>
+    <t>LD -(I)</t>
+  </si>
+  <si>
+    <t>0 -&gt; C</t>
+  </si>
+  <si>
+    <t>^C -&gt; C</t>
+  </si>
+  <si>
+    <t>^AC-&gt;AC</t>
+  </si>
+  <si>
+    <t>5 -&gt; AC</t>
+  </si>
+  <si>
+    <t>AND R</t>
+  </si>
+  <si>
+    <t>R&amp;AC -&gt; AC</t>
+  </si>
+  <si>
+    <t>I-1 -&gt; I; MEM(I) -&gt; AC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if N==0: IP-&gt;IP+2 </t>
+  </si>
+  <si>
+    <t>AC и C сдвигаются влево; AC15 -&gt; C; C -&gt; AC0</t>
+  </si>
+  <si>
+    <t>LOOP LEN</t>
+  </si>
+  <si>
+    <t>LEN-1-&gt;LEN; IF M&lt;=0: IP+1 -&gt; IP</t>
+  </si>
+  <si>
+    <t>IP-11 -&gt; IP</t>
+  </si>
+  <si>
+    <t>Останов</t>
+  </si>
+  <si>
+    <t>элемент массива</t>
+  </si>
+  <si>
+    <t>02FD</t>
+  </si>
+  <si>
+    <t>02FE</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>0304</t>
+  </si>
+  <si>
+    <t>0307</t>
+  </si>
+  <si>
+    <t>0306</t>
   </si>
 </sst>
 </file>
@@ -487,7 +568,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -519,10 +600,17 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -535,6 +623,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -817,46 +908,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:Q123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="109" workbookViewId="0">
+      <selection sqref="A1:L53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="12" width="5.5703125" customWidth="1"/>
-    <col min="16" max="16" width="21.7109375" style="12" customWidth="1"/>
+    <col min="16" max="16" width="21.7109375" style="11" customWidth="1"/>
+    <col min="17" max="17" width="43.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="13" t="s">
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="15"/>
-      <c r="N1" s="13" t="s">
+      <c r="L1" s="18"/>
+      <c r="N1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="14"/>
-      <c r="P1" s="11" t="s">
+      <c r="O1" s="20"/>
+      <c r="P1" s="12" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q1" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -896,11 +991,13 @@
       <c r="N2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P2" s="13"/>
+      <c r="Q2" s="14"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>21</v>
       </c>
@@ -923,10 +1020,10 @@
         <v>14</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>15</v>
@@ -936,14 +1033,17 @@
       <c r="N3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P3" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>22</v>
       </c>
@@ -960,16 +1060,16 @@
         <v>20</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>15</v>
@@ -978,19 +1078,22 @@
         <v>20</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P4" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q4" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>23</v>
       </c>
@@ -1007,33 +1110,36 @@
         <v>23</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K5" s="10"/>
       <c r="L5" s="6"/>
       <c r="N5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="O5" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="P5" s="12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P5" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q5" s="15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>24</v>
       </c>
@@ -1050,37 +1156,40 @@
         <v>19</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>19</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="O6" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="P6" s="12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P6" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q6" s="15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>25</v>
       </c>
@@ -1103,27 +1212,30 @@
         <v>14</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K7" s="10"/>
       <c r="L7" s="6"/>
       <c r="N7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="O7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="12" t="s">
+      <c r="P7" s="13" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q7" s="15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>26</v>
       </c>
@@ -1140,37 +1252,40 @@
         <v>18</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>18</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="N8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="O8" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P8" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>27</v>
       </c>
@@ -1193,31 +1308,34 @@
         <v>14</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>65</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>18</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="N9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O9" s="7" t="s">
+      <c r="O9" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="P9" s="12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P9" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q9" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>28</v>
       </c>
@@ -1240,27 +1358,30 @@
         <v>14</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>65</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K10" s="10"/>
       <c r="L10" s="6"/>
       <c r="N10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="O10" s="7" t="s">
+      <c r="O10" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="P10" s="12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P10" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q10" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>31</v>
       </c>
@@ -1283,10 +1404,10 @@
         <v>14</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>31</v>
+        <v>133</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>15</v>
@@ -1296,14 +1417,17 @@
       <c r="N11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="O11" s="7" t="s">
+      <c r="O11" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="P11" s="12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P11" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q11" s="15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>32</v>
       </c>
@@ -1326,27 +1450,30 @@
         <v>14</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>32</v>
+        <v>134</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K12" s="10"/>
       <c r="L12" s="6"/>
       <c r="N12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="O12" s="7" t="s">
+      <c r="O12" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="P12" s="12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P12" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q12" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>33</v>
       </c>
@@ -1363,16 +1490,16 @@
         <v>20</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>15</v>
@@ -1382,14 +1509,17 @@
       <c r="N13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="O13" s="7" t="s">
+      <c r="O13" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="P13" s="12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P13" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q13" s="15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>34</v>
       </c>
@@ -1412,10 +1542,10 @@
         <v>14</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>15</v>
@@ -1425,14 +1555,17 @@
       <c r="N14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="O14" s="7" t="s">
+      <c r="O14" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="P14" s="12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P14" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q14" s="15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>35</v>
       </c>
@@ -1449,16 +1582,16 @@
         <v>20</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J15" s="9" t="s">
         <v>15</v>
@@ -1467,19 +1600,22 @@
         <v>20</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="O15" s="7" t="s">
+      <c r="O15" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="P15" s="12" t="s">
+      <c r="P15" s="13" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q15" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>36</v>
       </c>
@@ -1496,16 +1632,16 @@
         <v>19</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J16" s="9" t="s">
         <v>15</v>
@@ -1514,19 +1650,22 @@
         <v>19</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="O16" s="7" t="s">
+      <c r="O16" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="P16" s="12" t="s">
+      <c r="P16" s="13" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q16" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>37</v>
       </c>
@@ -1543,16 +1682,16 @@
         <v>37</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J17" s="9" t="s">
         <v>15</v>
@@ -1562,14 +1701,17 @@
       <c r="N17" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="O17" s="7" t="s">
+      <c r="O17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="P17" s="12" t="s">
+      <c r="P17" s="13" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q17" s="15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>27</v>
       </c>
@@ -1592,31 +1734,34 @@
         <v>14</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>64</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K18" s="10" t="s">
         <v>18</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N18" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="O18" s="7" t="s">
+      <c r="O18" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="P18" s="12" t="s">
+      <c r="P18" s="13" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q18" s="15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>28</v>
       </c>
@@ -1639,27 +1784,30 @@
         <v>14</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>64</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K19" s="10"/>
       <c r="L19" s="6"/>
       <c r="N19" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="O19" s="7" t="s">
+      <c r="O19" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="P19" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P19" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q19" s="15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>31</v>
       </c>
@@ -1682,10 +1830,10 @@
         <v>14</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>31</v>
+        <v>133</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J20" s="9" t="s">
         <v>15</v>
@@ -1695,14 +1843,17 @@
       <c r="N20" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="O20" s="7" t="s">
+      <c r="O20" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="P20" s="12" t="s">
+      <c r="P20" s="13" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q20" s="15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>32</v>
       </c>
@@ -1725,27 +1876,30 @@
         <v>14</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>32</v>
+        <v>134</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K21" s="10"/>
       <c r="L21" s="6"/>
       <c r="N21" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="O21" s="7" t="s">
+      <c r="O21" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="P21" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P21" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>33</v>
       </c>
@@ -1762,16 +1916,16 @@
         <v>20</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J22" s="9" t="s">
         <v>15</v>
@@ -1781,14 +1935,17 @@
       <c r="N22" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="O22" s="7" t="s">
+      <c r="O22" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="P22" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P22" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q22" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>34</v>
       </c>
@@ -1811,10 +1968,10 @@
         <v>14</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J23" s="9" t="s">
         <v>15</v>
@@ -1824,14 +1981,17 @@
       <c r="N23" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O23" s="7" t="s">
+      <c r="O23" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="P23" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P23" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q23" s="15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>35</v>
       </c>
@@ -1848,16 +2008,16 @@
         <v>20</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J24" s="9" t="s">
         <v>15</v>
@@ -1866,19 +2026,22 @@
         <v>20</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N24" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="O24" s="7" t="s">
+      <c r="O24" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="P24" s="12" t="s">
+      <c r="P24" s="13" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q24" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>36</v>
       </c>
@@ -1895,16 +2058,16 @@
         <v>19</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J25" s="9" t="s">
         <v>15</v>
@@ -1913,19 +2076,22 @@
         <v>19</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N25" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O25" s="7" t="s">
+      <c r="O25" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="P25" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P25" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q25" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>37</v>
       </c>
@@ -1942,16 +2108,16 @@
         <v>37</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J26" s="9" t="s">
         <v>15</v>
@@ -1961,14 +2127,17 @@
       <c r="N26" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="O26" s="7" t="s">
+      <c r="O26" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="P26" s="12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P26" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q26" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>27</v>
       </c>
@@ -1981,91 +2150,1962 @@
       <c r="D27" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F27" s="6"/>
+      <c r="E27" s="6">
+        <v>307</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="G27" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="6"/>
+      <c r="H27" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>137</v>
+      </c>
       <c r="N27" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="O27" s="7" t="s">
+      <c r="O27" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="P27" s="12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
+      <c r="P27" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q27" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="G28" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="9"/>
+      <c r="H28" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="K28" s="10"/>
       <c r="L28" s="6"/>
       <c r="N28" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="O28" s="7" t="s">
+      <c r="O28" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="P28" s="12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
+      <c r="P28" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q28" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="G29" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="9"/>
+      <c r="H29" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="K29" s="10"/>
       <c r="L29" s="6"/>
       <c r="N29" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="O29" s="7" t="s">
+      <c r="O29" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="P29" s="12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="9"/>
+      <c r="P29" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q29" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J30" s="9">
+        <v>1000</v>
+      </c>
       <c r="K30" s="10"/>
       <c r="L30" s="6"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="8">
+        <v>300</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K31" s="10"/>
+      <c r="L31" s="6"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>300</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="8">
+        <v>301</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="6">
+        <v>300</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K32" s="10"/>
+      <c r="L32" s="6"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <v>301</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="8">
+        <v>302</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>302</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="8">
+        <v>303</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>303</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" s="6">
+        <v>303</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K35" s="10"/>
+      <c r="L35" s="6"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" s="6">
+        <v>306</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="K36" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="K37" s="10"/>
+      <c r="L37" s="6"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K38" s="10"/>
+      <c r="L38" s="6"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J39" s="9">
+        <v>1000</v>
+      </c>
+      <c r="K39" s="10"/>
+      <c r="L39" s="6"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="8">
+        <v>300</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K40" s="10"/>
+      <c r="L40" s="6"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
+        <v>300</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="8">
+        <v>301</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E41" s="6">
+        <v>300</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K41" s="10"/>
+      <c r="L41" s="6"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
+        <v>301</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="8">
+        <v>302</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K42" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L42" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
+        <v>302</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="8">
+        <v>303</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K43" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <v>303</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E44" s="6">
+        <v>303</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K44" s="10"/>
+      <c r="L44" s="6"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E45" s="6">
+        <v>305</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="K45" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="K46" s="10"/>
+      <c r="L46" s="6"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K47" s="10"/>
+      <c r="L47" s="6"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J48" s="9">
+        <v>1000</v>
+      </c>
+      <c r="K48" s="10"/>
+      <c r="L48" s="6"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" s="8">
+        <v>300</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K49" s="10"/>
+      <c r="L49" s="6"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="6">
+        <v>300</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="8">
+        <v>301</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E50" s="6">
+        <v>300</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K50" s="10"/>
+      <c r="L50" s="6"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="6">
+        <v>301</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" s="8">
+        <v>302</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K51" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L51" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="6">
+        <v>302</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52" s="8">
+        <v>304</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K52" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L52" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="6">
+        <v>304</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="8">
+        <v>305</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" s="6">
+        <v>304</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K53" s="10"/>
+      <c r="L53" s="6"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="6"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="6"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="6"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="6"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="6"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="6"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="6"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="6"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="6"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="6"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="6"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="6"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="6"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="6"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="6"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="6"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="6"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="10"/>
+      <c r="L62" s="6"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="6"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="6"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="6"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="10"/>
+      <c r="L64" s="6"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="6"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="6"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="6"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="6"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="6"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="6"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="6"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="10"/>
+      <c r="L68" s="6"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="6"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="10"/>
+      <c r="L69" s="6"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="6"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="10"/>
+      <c r="L70" s="6"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="6"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="10"/>
+      <c r="L71" s="6"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="6"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="10"/>
+      <c r="L72" s="6"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="6"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="10"/>
+      <c r="L73" s="6"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="6"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="10"/>
+      <c r="L74" s="6"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="6"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="6"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="6"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="10"/>
+      <c r="L76" s="6"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="6"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="10"/>
+      <c r="L77" s="6"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="6"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="10"/>
+      <c r="L78" s="6"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="6"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="10"/>
+      <c r="L79" s="6"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="6"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="10"/>
+      <c r="L80" s="6"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="6"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="10"/>
+      <c r="L81" s="6"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="6"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="10"/>
+      <c r="L82" s="6"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="6"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="10"/>
+      <c r="L83" s="6"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="6"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="10"/>
+      <c r="L84" s="6"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="6"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="10"/>
+      <c r="L85" s="6"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="6"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="10"/>
+      <c r="L86" s="6"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="6"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="10"/>
+      <c r="L87" s="6"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="6"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="10"/>
+      <c r="L88" s="6"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="6"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="10"/>
+      <c r="L89" s="6"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="6"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="10"/>
+      <c r="L90" s="6"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="6"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="10"/>
+      <c r="L91" s="6"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="6"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="10"/>
+      <c r="L92" s="6"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="6"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="10"/>
+      <c r="L93" s="6"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="6"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="10"/>
+      <c r="L94" s="6"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="6"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="10"/>
+      <c r="L95" s="6"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="6"/>
+      <c r="B96" s="7"/>
+      <c r="C96" s="8"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="10"/>
+      <c r="L96" s="6"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="6"/>
+      <c r="B97" s="7"/>
+      <c r="C97" s="8"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="10"/>
+      <c r="L97" s="6"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" s="6"/>
+      <c r="B98" s="7"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="10"/>
+      <c r="L98" s="6"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" s="6"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="10"/>
+      <c r="L99" s="6"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" s="6"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="6"/>
+      <c r="I100" s="6"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="10"/>
+      <c r="L100" s="6"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" s="6"/>
+      <c r="B101" s="7"/>
+      <c r="C101" s="8"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
+      <c r="I101" s="6"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="10"/>
+      <c r="L101" s="6"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="6"/>
+      <c r="B102" s="7"/>
+      <c r="C102" s="8"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="6"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="10"/>
+      <c r="L102" s="6"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" s="6"/>
+      <c r="B103" s="7"/>
+      <c r="C103" s="8"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
+      <c r="I103" s="6"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="10"/>
+      <c r="L103" s="6"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="6"/>
+      <c r="B104" s="7"/>
+      <c r="C104" s="8"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="6"/>
+      <c r="I104" s="6"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="10"/>
+      <c r="L104" s="6"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" s="6"/>
+      <c r="B105" s="7"/>
+      <c r="C105" s="8"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
+      <c r="I105" s="6"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="10"/>
+      <c r="L105" s="6"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" s="6"/>
+      <c r="B106" s="7"/>
+      <c r="C106" s="8"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="6"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="10"/>
+      <c r="L106" s="6"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" s="6"/>
+      <c r="B107" s="7"/>
+      <c r="C107" s="8"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="6"/>
+      <c r="I107" s="6"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="10"/>
+      <c r="L107" s="6"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" s="6"/>
+      <c r="B108" s="7"/>
+      <c r="C108" s="8"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="6"/>
+      <c r="I108" s="6"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="10"/>
+      <c r="L108" s="6"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" s="6"/>
+      <c r="B109" s="7"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="6"/>
+      <c r="I109" s="6"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="10"/>
+      <c r="L109" s="6"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" s="6"/>
+      <c r="B110" s="7"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="6"/>
+      <c r="I110" s="6"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="10"/>
+      <c r="L110" s="6"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" s="6"/>
+      <c r="B111" s="7"/>
+      <c r="C111" s="8"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="6"/>
+      <c r="I111" s="6"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="10"/>
+      <c r="L111" s="6"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" s="6"/>
+      <c r="B112" s="7"/>
+      <c r="C112" s="8"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="6"/>
+      <c r="I112" s="6"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="10"/>
+      <c r="L112" s="6"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" s="6"/>
+      <c r="B113" s="7"/>
+      <c r="C113" s="8"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6"/>
+      <c r="I113" s="6"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="10"/>
+      <c r="L113" s="6"/>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" s="6"/>
+      <c r="B114" s="7"/>
+      <c r="C114" s="8"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="6"/>
+      <c r="H114" s="6"/>
+      <c r="I114" s="6"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="10"/>
+      <c r="L114" s="6"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" s="6"/>
+      <c r="B115" s="7"/>
+      <c r="C115" s="8"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="6"/>
+      <c r="I115" s="6"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="10"/>
+      <c r="L115" s="6"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" s="6"/>
+      <c r="B116" s="7"/>
+      <c r="C116" s="8"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="6"/>
+      <c r="H116" s="6"/>
+      <c r="I116" s="6"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="10"/>
+      <c r="L116" s="6"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" s="6"/>
+      <c r="B117" s="7"/>
+      <c r="C117" s="8"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="6"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="6"/>
+      <c r="I117" s="6"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="10"/>
+      <c r="L117" s="6"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" s="6"/>
+      <c r="B118" s="7"/>
+      <c r="C118" s="8"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="6"/>
+      <c r="G118" s="6"/>
+      <c r="H118" s="6"/>
+      <c r="I118" s="6"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="10"/>
+      <c r="L118" s="6"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" s="6"/>
+      <c r="B119" s="7"/>
+      <c r="C119" s="8"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="6"/>
+      <c r="H119" s="6"/>
+      <c r="I119" s="6"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="10"/>
+      <c r="L119" s="6"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" s="6"/>
+      <c r="B120" s="7"/>
+      <c r="C120" s="8"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="6"/>
+      <c r="H120" s="6"/>
+      <c r="I120" s="6"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="10"/>
+      <c r="L120" s="6"/>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" s="6"/>
+      <c r="B121" s="7"/>
+      <c r="C121" s="8"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="6"/>
+      <c r="G121" s="6"/>
+      <c r="H121" s="6"/>
+      <c r="I121" s="6"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="10"/>
+      <c r="L121" s="6"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" s="6"/>
+      <c r="B122" s="7"/>
+      <c r="C122" s="8"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6"/>
+      <c r="F122" s="6"/>
+      <c r="G122" s="6"/>
+      <c r="H122" s="6"/>
+      <c r="I122" s="6"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="10"/>
+      <c r="L122" s="6"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" s="6"/>
+      <c r="B123" s="7"/>
+      <c r="C123" s="8"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="6"/>
+      <c r="G123" s="6"/>
+      <c r="H123" s="6"/>
+      <c r="I123" s="6"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="10"/>
+      <c r="L123" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
